--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_25.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_25.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kazuya Yamada</t>
+          <t>Akemi Sato</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
